--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,6 +377,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
